--- a/public/templates/ImporMapel.xlsx
+++ b/public/templates/ImporMapel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C415C9-ED3E-4B18-BF21-E1310DA79B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511E01C-609E-4216-9E63-C5FB037C99FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FADD8C8E-7FE8-45FA-BB6C-EBB1EA053B83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NAMA MAPEL</t>
   </si>
@@ -97,15 +97,6 @@
       </rPr>
       <t>Mulai Mengisi Data Pada Baris 3 Dibawah</t>
     </r>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Pemrograman Berorientasi Obyek</t>
-  </si>
-  <si>
-    <t>Bahasa Indonesia</t>
   </si>
 </sst>
 </file>
@@ -488,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E72DAF-93FD-4535-997D-F9CA6250A9AC}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,57 +507,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
